--- a/BackPropagation.xlsx
+++ b/BackPropagation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSA301\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB4D513-3629-4D02-9D03-827772C7EB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E3BED3-F5E5-4952-8850-F29F96B2B370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{552E9E7E-B958-4B62-A25F-87D0F1E214CA}"/>
   </bookViews>
@@ -265,16 +265,10 @@
     <t>dEtotal/dact_h2= d(E1+E2)/dact_h2= dE1/dact_h2+ dE2/dact_h2=     (act_o1 - t1)*act_o1*(1-act_o1) *w6 + (act_o2 - t2)*act_o2*(1-act_o2) *w8</t>
   </si>
   <si>
-    <t xml:space="preserve">dEtotal/w1=dEtotal/dact_h1*dact_h1/dh1*dh1/dw1  = </t>
-  </si>
-  <si>
     <t>dact_h1/dh1= act_h1*(1-act_h1)</t>
   </si>
   <si>
     <t>dh1/dw1=i1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dEtotal/w2=dEtotal/dact_h1*dact_h1/dh1*dh1/dw2  = </t>
   </si>
   <si>
     <t>dact_h2/dh2= act_h2*(1-act_h2)</t>
@@ -287,12 +281,6 @@
   </si>
   <si>
     <t>dh2/dw4=i2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dEtotal/w3=dEtotal/dact_h2*dact_h2/dh2*dh2/dw3  = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dEtotal/w4=dEtotal/dact_h2*dact_h2/dh2*dh2/dw4 = </t>
   </si>
   <si>
     <t xml:space="preserve">    =       </t>
@@ -335,6 +323,18 @@
   </si>
   <si>
     <t>learningRate=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dEtotal/dw1=dEtotal/dact_h1*dact_h1/dh1*dh1/dw1  = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dEtotal/dw2=dEtotal/dact_h1*dact_h1/dh1*dh1/dw2  = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dEtotal/dw3=dEtotal/dact_h2*dact_h2/dh2*dh2/dw3  = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dEtotal/dw4=dEtotal/dact_h2*dact_h2/dh2*dh2/dw4 = </t>
   </si>
 </sst>
 </file>
@@ -1871,8 +1871,8 @@
       <xdr:rowOff>26194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>434195</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>270909</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>16323</xdr:rowOff>
     </xdr:to>
@@ -2157,14 +2157,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D0A32B-2BB8-4DE1-8831-100EA356886A}">
   <dimension ref="A24:AE266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="3" max="3" width="39.3984375" customWidth="1"/>
     <col min="4" max="4" width="10.09765625" customWidth="1"/>
     <col min="5" max="5" width="8.59765625" customWidth="1"/>
     <col min="9" max="9" width="7.796875" customWidth="1"/>
@@ -2367,64 +2367,64 @@
     </row>
     <row r="57" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I58" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" t="s">
         <v>73</v>
-      </c>
-      <c r="K58" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="59" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K59" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="5:11" x14ac:dyDescent="0.2">
       <c r="G64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2501,28 +2501,28 @@
         <v>35</v>
       </c>
       <c r="X65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Y65" s="1" t="s">
+      <c r="AC65" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z65" s="1" t="s">
+      <c r="AD65" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA65" s="1" t="s">
+      <c r="AE65" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC65" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE65" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
